--- a/query/data.xlsx
+++ b/query/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="988"/>
+    <workbookView xWindow="8040" yWindow="2360" windowWidth="25600" windowHeight="15460" tabRatio="988"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,11 +57,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>0.0.0.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +389,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -429,13 +429,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
